--- a/docs/conduit_T-03_login_KRF.xlsx
+++ b/docs/conduit_T-03_login_KRF.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Projekt neve:</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>T-02 sikeresen lefutott</t>
-  </si>
-  <si>
-    <t>Username: a</t>
   </si>
   <si>
     <r>
@@ -568,7 +565,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,54 +610,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -669,7 +675,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Normál 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -799,50 +805,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1214,7 +1176,7 @@
   <dimension ref="A1:IW38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G18" sqref="G18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1232,59 +1194,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1300,25 +1262,25 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23">
         <v>44421</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1336,104 +1298,104 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="F7" s="29" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="I7" s="29" t="s">
+      <c r="G7" s="25"/>
+      <c r="I7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="I10" s="29" t="s">
+      <c r="G10" s="25"/>
+      <c r="I10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
@@ -1441,16 +1403,16 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="10"/>
@@ -1464,11 +1426,11 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,11 +1442,11 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,11 +1458,9 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,9 +1472,9 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1526,9 +1486,9 @@
       <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1544,51 +1504,51 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18" t="s">
+      <c r="J22" s="24"/>
+      <c r="K22" s="34" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
@@ -1596,364 +1556,418 @@
       <c r="A24" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="17"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
+      <c r="B26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>5</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
+      <c r="B28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>6</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
+      <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="17"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>7</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
+      <c r="B30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17" t="s">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>8</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17" t="s">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>9</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="17"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>10</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17" t="s">
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>11</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17" t="s">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="17"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>12</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17" t="s">
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>13</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17" t="s">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="17"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>14</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="17"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>15</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17" t="s">
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="17"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="I32:J32"/>
@@ -1971,75 +1985,21 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="11" priority="2">
@@ -2091,8 +2051,8 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="https://github.com/tjozsa/conduit"/>
-    <hyperlink ref="G16" r:id="rId2" display="user2@hotmail.com"/>
-    <hyperlink ref="D25" r:id="rId3" location="/login" display="http://localhost:1667/#/login"/>
+    <hyperlink ref="D25" r:id="rId2" location="/login" display="http://localhost:1667/#/login"/>
+    <hyperlink ref="G15" r:id="rId3" location="/login" display="http://localhost:1667/#/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/conduit_T-03_login_KRF.xlsx
+++ b/docs/conduit_T-03_login_KRF.xlsx
@@ -148,23 +148,6 @@
     <t>T-02 sikeresen lefutott</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a@a.hu</t>
-    </r>
-  </si>
-  <si>
-    <t>Password: aaaAAA111</t>
-  </si>
-  <si>
     <t>Megjelenik a Sign in felirat</t>
   </si>
   <si>
@@ -272,6 +255,23 @@
   </si>
   <si>
     <t>A Settings gomb megjelenik az oldal jobb felső sarkában</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>user69@gmail.hu</t>
+    </r>
+  </si>
+  <si>
+    <t>Password: irsai10TC</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,45 +610,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -656,17 +631,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1176,7 +1167,7 @@
   <dimension ref="A1:IW38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:I18"/>
+      <selection activeCell="G19" sqref="G19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1194,59 +1185,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1262,25 +1253,25 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31">
         <v>44421</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1298,20 +1289,20 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="27"/>
+      <c r="I7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
@@ -1323,12 +1314,12 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
@@ -1351,14 +1342,14 @@
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="27"/>
+      <c r="I10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
@@ -1392,10 +1383,10 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
@@ -1403,16 +1394,16 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="10"/>
@@ -1426,11 +1417,11 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="16"/>
+      <c r="G15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,11 +1433,11 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="16"/>
+      <c r="G16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,9 +1449,9 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,9 +1463,9 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1486,9 +1477,9 @@
       <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1504,51 +1495,51 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="24" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="34" t="s">
+      <c r="J22" s="20"/>
+      <c r="K22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
@@ -1556,418 +1547,364 @@
       <c r="A24" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17" t="s">
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
+      <c r="B26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>4</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>5</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
+      <c r="B28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>6</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
+      <c r="B29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>7</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
+      <c r="B30" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>8</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>9</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
+      <c r="B32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>10</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
+      <c r="B33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="18"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>11</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>12</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18" t="s">
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>13</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>14</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17" t="s">
+      <c r="B37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>15</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17" t="s">
+      <c r="B38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="I32:J32"/>
@@ -1985,21 +1922,75 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="11" priority="2">
@@ -2052,7 +2043,7 @@
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="https://github.com/tjozsa/conduit"/>
     <hyperlink ref="D25" r:id="rId2" location="/login" display="http://localhost:1667/#/login"/>
-    <hyperlink ref="G15" r:id="rId3" location="/login" display="http://localhost:1667/#/login"/>
+    <hyperlink ref="G15" r:id="rId3" display="user2@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
